--- a/exercise-1/[BT1]-Nhom04/DanhSachNhom/Nhom04.xlsx
+++ b/exercise-1/[BT1]-Nhom04/DanhSachNhom/Nhom04.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master-k30-hcmus\knowledge-representation\exercise-1\[BT1]-Nhom04\DanhSachNhom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C84E98E-56C9-4093-A2A1-2CE2C9B3813C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750C7AD3-D838-4B83-B698-AEC2634BE177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A59877E1-BE3D-4B39-81F3-EE33F4B4CD6D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Members" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasks" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>MSHV</t>
   </si>
@@ -54,9 +57,6 @@
     <t>Đặng Khánh Thi</t>
   </si>
   <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
     <t>Nhóm trưởng</t>
   </si>
   <si>
@@ -67,6 +67,42 @@
   </si>
   <si>
     <t>20C29013</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Phân công</t>
+  </si>
+  <si>
+    <t>Câu 1:</t>
+  </si>
+  <si>
+    <t>Câu 2:</t>
+  </si>
+  <si>
+    <t>Câu 3:</t>
+  </si>
+  <si>
+    <t>Tóm tắt section 3.3.1 Household robots + Đề xuất hướng mở rộng</t>
+  </si>
+  <si>
+    <t>Tóm tắt section 4: thách thức của KR dưới dạng Mindmap</t>
+  </si>
+  <si>
+    <t>Trình bày KR của một ứng dụng trong thực tế</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>Câu 3: Trình bày KR của một ứng dụng trong thực tế</t>
+  </si>
+  <si>
+    <t>Câu 2: Tóm tắt section 4: thách thức của KR dưới dạng Mindmap</t>
+  </si>
+  <si>
+    <t>Câu 1: Tham khảo section 3 + Đề xuất hướng mở rộng</t>
   </si>
 </sst>
 </file>
@@ -115,11 +151,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,64 +480,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D0AA53-350E-4A1F-8DE5-2FA248FB5B7B}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CEFE29-88B8-4936-ACA2-7B62E1EE875B}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
